--- a/excelData/EMR_FollowupInfo.template.xlsx
+++ b/excelData/EMR_FollowupInfo.template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heguangliang/PycharmProjects/databaseDemo2/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7C709-657A-0343-A3DD-D4EFCF4D23A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F146020-7A67-2E40-A236-C092891E0279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="27320" windowHeight="20020" xr2:uid="{6B32E4C3-5029-B043-9B1D-F2A07E068BBF}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="27320" windowHeight="17540" activeTab="1" xr2:uid="{6B32E4C3-5029-B043-9B1D-F2A07E068BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>病历编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复发转移部位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,21 +477,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37234C81-F428-054A-9C2B-62EE4EEAA90D}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="3"/>
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,21 +507,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -537,7 +553,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -549,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCC4CE4-FDAD-1C46-BA51-A7EE0366763F}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
